--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-paper-format.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-paper-format.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
